--- a/ToDoListeExam.xlsx
+++ b/ToDoListeExam.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="51">
   <si>
     <t>tache</t>
   </si>
@@ -525,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -774,7 +774,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -790,8 +790,11 @@
       <c r="E17">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -808,7 +811,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -825,7 +828,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -841,8 +844,11 @@
       <c r="E20">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -859,7 +865,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -876,7 +882,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -892,8 +898,11 @@
       <c r="E23">
         <v>10</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -909,8 +918,11 @@
       <c r="E24">
         <v>10</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -927,7 +939,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -944,7 +956,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -961,7 +973,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -977,8 +989,11 @@
       <c r="E29">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="F29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -994,8 +1009,11 @@
       <c r="E30">
         <v>15</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="F30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -1011,8 +1029,11 @@
       <c r="E31">
         <v>15</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="F31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -1029,7 +1050,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -1046,7 +1067,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -1062,8 +1083,11 @@
       <c r="E34">
         <v>10</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="F34" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -1079,8 +1103,11 @@
       <c r="E35">
         <v>10</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -1096,8 +1123,11 @@
       <c r="E36">
         <v>10</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="F36" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -1114,7 +1144,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -1131,7 +1161,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>44</v>
       </c>
@@ -1147,8 +1177,11 @@
       <c r="E39">
         <v>10</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="F39" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>44</v>
       </c>
@@ -1164,8 +1197,11 @@
       <c r="E40">
         <v>10</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="F40" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>44</v>
       </c>

--- a/ToDoListeExam.xlsx
+++ b/ToDoListeExam.xlsx
@@ -519,8 +519,8 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E54" activeCellId="0" sqref="E54"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2564,8 +2564,8 @@
       <c r="F50" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G50" s="1" t="n">
-        <v>0</v>
+      <c r="G50" s="2" t="n">
+        <v>20</v>
       </c>
       <c r="H50" s="4" t="e">
         <f aca="false">(G50+F50)/F50</f>
@@ -2609,8 +2609,8 @@
       <c r="F51" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G51" s="1" t="n">
-        <v>0</v>
+      <c r="G51" s="2" t="n">
+        <v>30</v>
       </c>
       <c r="H51" s="4" t="e">
         <f aca="false">(G51+F51)/F51</f>
@@ -2654,8 +2654,8 @@
       <c r="F52" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G52" s="1" t="n">
-        <v>0</v>
+      <c r="G52" s="2" t="n">
+        <v>10</v>
       </c>
       <c r="H52" s="4" t="e">
         <f aca="false">(G52+F52)/F52</f>
@@ -2699,8 +2699,8 @@
       <c r="F53" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G53" s="1" t="n">
-        <v>0</v>
+      <c r="G53" s="2" t="n">
+        <v>20</v>
       </c>
       <c r="H53" s="4" t="e">
         <f aca="false">(G53+F53)/F53</f>
@@ -2744,8 +2744,8 @@
       <c r="F54" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G54" s="1" t="n">
-        <v>0</v>
+      <c r="G54" s="2" t="n">
+        <v>30</v>
       </c>
       <c r="H54" s="4" t="e">
         <f aca="false">(G54+F54)/F54</f>
@@ -2789,8 +2789,8 @@
       <c r="F55" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G55" s="1" t="n">
-        <v>0</v>
+      <c r="G55" s="2" t="n">
+        <v>3</v>
       </c>
       <c r="H55" s="4" t="e">
         <f aca="false">(G55+F55)/F55</f>
@@ -2834,8 +2834,8 @@
       <c r="F56" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G56" s="1" t="n">
-        <v>0</v>
+      <c r="G56" s="2" t="n">
+        <v>20</v>
       </c>
       <c r="H56" s="4" t="e">
         <f aca="false">(G56+F56)/F56</f>
@@ -2879,8 +2879,8 @@
       <c r="F57" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G57" s="1" t="n">
-        <v>0</v>
+      <c r="G57" s="2" t="n">
+        <v>30</v>
       </c>
       <c r="H57" s="4" t="e">
         <f aca="false">(G57+F57)/F57</f>
@@ -2924,8 +2924,8 @@
       <c r="F58" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G58" s="1" t="n">
-        <v>0</v>
+      <c r="G58" s="2" t="n">
+        <v>3</v>
       </c>
       <c r="H58" s="4" t="e">
         <f aca="false">(G58+F58)/F58</f>
@@ -2969,8 +2969,8 @@
       <c r="F59" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G59" s="1" t="n">
-        <v>0</v>
+      <c r="G59" s="2" t="n">
+        <v>20</v>
       </c>
       <c r="H59" s="4" t="e">
         <f aca="false">(G59+F59)/F59</f>
@@ -3014,8 +3014,8 @@
       <c r="F60" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G60" s="1" t="n">
-        <v>0</v>
+      <c r="G60" s="2" t="n">
+        <v>40</v>
       </c>
       <c r="H60" s="4" t="e">
         <f aca="false">(G60+F60)/F60</f>
@@ -3059,8 +3059,8 @@
       <c r="F61" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G61" s="1" t="n">
-        <v>0</v>
+      <c r="G61" s="2" t="n">
+        <v>3</v>
       </c>
       <c r="H61" s="4" t="e">
         <f aca="false">(G61+F61)/F61</f>
@@ -3104,8 +3104,8 @@
       <c r="F62" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G62" s="1" t="n">
-        <v>0</v>
+      <c r="G62" s="2" t="n">
+        <v>20</v>
       </c>
       <c r="H62" s="4" t="e">
         <f aca="false">(G62+F62)/F62</f>
@@ -3149,8 +3149,8 @@
       <c r="F63" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G63" s="1" t="n">
-        <v>0</v>
+      <c r="G63" s="2" t="n">
+        <v>30</v>
       </c>
       <c r="H63" s="4" t="e">
         <f aca="false">(G63+F63)/F63</f>
